--- a/docment/外部設計書/新リンゴ拾いワイヤフレーム .xlsx
+++ b/docment/外部設計書/新リンゴ拾いワイヤフレーム .xlsx
@@ -247,6 +247,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,9 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,8 +360,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
@@ -378,8 +378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1668780" y="2209800"/>
-          <a:ext cx="1203960" cy="327660"/>
+          <a:off x="2103120" y="2209800"/>
+          <a:ext cx="769620" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,71 +408,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リセット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="350520"/>
-          <a:ext cx="1150620" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>ヒント</a:t>
           </a:r>
         </a:p>
@@ -1372,6 +1307,63 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784860" y="2209800"/>
+          <a:ext cx="769620" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リセット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1701,12 +1693,12 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1718,10 +1710,10 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1733,10 +1725,10 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1748,10 +1740,10 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1763,10 +1755,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1778,10 +1770,10 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1793,10 +1785,10 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1808,10 +1800,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
